--- a/_resource/excel/temp/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/temp/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
   <si>
     <t>描述说明</t>
   </si>
@@ -241,15 +241,6 @@
   </si>
   <si>
     <t>./config/player.xml</t>
-  </si>
-  <si>
-    <t>时间配置表</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>./config/time.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
@@ -518,6 +509,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.xml</t>
@@ -539,6 +531,60 @@
   <si>
     <r>
       <t>./config/taskrefresh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeloop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间循环配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间区间配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timesection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeloop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/timeloop.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timesection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>timesection</t>
     </r>
     <r>
       <rPr>
@@ -1082,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1102,7 +1148,7 @@
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1503,10 +1549,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1652,17 +1698,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>75</v>
+      <c r="A23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -1678,17 +1724,17 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>78</v>
+      <c r="A24" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -1705,16 +1751,16 @@
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -1731,16 +1777,16 @@
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
@@ -1757,16 +1803,16 @@
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -1783,16 +1829,16 @@
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
@@ -1809,16 +1855,16 @@
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -1835,16 +1881,16 @@
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -1861,16 +1907,16 @@
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9">
         <v>1</v>
@@ -1886,17 +1932,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>138</v>
+      <c r="A32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
@@ -1913,43 +1959,43 @@
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
@@ -1963,24 +2009,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>128</v>
+        <v>98</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
       </c>
       <c r="F35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -1991,22 +2037,22 @@
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>107</v>
+        <v>124</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -2017,16 +2063,16 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
@@ -2043,16 +2089,16 @@
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
@@ -2069,69 +2115,69 @@
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="9">
-        <v>1</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="E41" s="9">
         <v>1</v>
       </c>
@@ -2141,28 +2187,28 @@
       <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -2173,27 +2219,53 @@
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9">
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
         <v>0</v>
       </c>
     </row>
